--- a/data/trans_orig/P44-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>14172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7466</v>
+        <v>8162</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24538</v>
+        <v>24972</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06041168948733051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0318240125682279</v>
+        <v>0.03479430548317572</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1046014812006153</v>
+        <v>0.106450369773911</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -764,19 +764,19 @@
         <v>20509</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12809</v>
+        <v>12609</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31082</v>
+        <v>30958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07120192438644272</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0444675220381613</v>
+        <v>0.04377405708169528</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.107907617364857</v>
+        <v>0.1074749627123894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -785,19 +785,19 @@
         <v>34681</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22853</v>
+        <v>24728</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48152</v>
+        <v>48980</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06635863765895629</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04372598744027221</v>
+        <v>0.04731404605074267</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09213372238960756</v>
+        <v>0.09371811805264511</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>220416</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>210050</v>
+        <v>209616</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>227122</v>
+        <v>226426</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9395883105126694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8953985187993848</v>
+        <v>0.8935496302260889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9681759874317721</v>
+        <v>0.9652056945168243</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -835,19 +835,19 @@
         <v>267536</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256963</v>
+        <v>257087</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>275236</v>
+        <v>275436</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9287980756135573</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.892092382635143</v>
+        <v>0.8925250372876105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9555324779618387</v>
+        <v>0.9562259429183043</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>436</v>
@@ -856,19 +856,19 @@
         <v>487952</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>474481</v>
+        <v>473653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>499780</v>
+        <v>497905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9336413623410437</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9078662776103924</v>
+        <v>0.9062818819473537</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9562740125597278</v>
+        <v>0.9526859539492574</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>39341</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28221</v>
+        <v>26724</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54931</v>
+        <v>53712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09500142367302578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06814947465375445</v>
+        <v>0.06453480351766029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1326498061069563</v>
+        <v>0.1297055269066377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -981,19 +981,19 @@
         <v>34871</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24527</v>
+        <v>24012</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48664</v>
+        <v>49561</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07899028282635126</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05555790039617637</v>
+        <v>0.05439222302614153</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1102331730042157</v>
+        <v>0.1122659681581673</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1002,19 +1002,19 @@
         <v>74212</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59309</v>
+        <v>57938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93071</v>
+        <v>93603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0867398538947617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06932046061655839</v>
+        <v>0.06771891717223523</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1087822150031182</v>
+        <v>0.109404468620131</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>374765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>359175</v>
+        <v>360394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>385885</v>
+        <v>387382</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9049985763269742</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8673501938930437</v>
+        <v>0.8702944730933622</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9318505253462455</v>
+        <v>0.9354651964823395</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>370</v>
@@ -1052,19 +1052,19 @@
         <v>406594</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>392801</v>
+        <v>391904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416938</v>
+        <v>417453</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9210097171736488</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8897668269957844</v>
+        <v>0.8877340318418329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9444420996038236</v>
+        <v>0.9456077769738586</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>715</v>
@@ -1073,19 +1073,19 @@
         <v>781358</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>762499</v>
+        <v>761967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>796261</v>
+        <v>797632</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9132601461052383</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8912177849968818</v>
+        <v>0.890595531379869</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9306795393834417</v>
+        <v>0.9322810828277649</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>32735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22603</v>
+        <v>21802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46886</v>
+        <v>48190</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1088788369527747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0751778386682109</v>
+        <v>0.07251483521974077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1559441409430969</v>
+        <v>0.1602833446936007</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1198,19 +1198,19 @@
         <v>33386</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23168</v>
+        <v>23422</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45939</v>
+        <v>45222</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09536190785169395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06617574652038691</v>
+        <v>0.06690353303016915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.131219784253742</v>
+        <v>0.1291717806315958</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1219,19 +1219,19 @@
         <v>66121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51429</v>
+        <v>51438</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84669</v>
+        <v>84549</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1016069466638208</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07903050412222536</v>
+        <v>0.07904449948497091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1301097226007674</v>
+        <v>0.129924981610359</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>267922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253771</v>
+        <v>252467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>278054</v>
+        <v>278855</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8911211630472253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8440558590569032</v>
+        <v>0.8397166553063994</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9248221613317892</v>
+        <v>0.9274851647802592</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>308</v>
@@ -1269,19 +1269,19 @@
         <v>316707</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>304154</v>
+        <v>304871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326925</v>
+        <v>326671</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.904638092148306</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8687802157462579</v>
+        <v>0.8708282193684043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9338242534796131</v>
+        <v>0.9330964669698308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>554</v>
@@ -1290,19 +1290,19 @@
         <v>584629</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>566081</v>
+        <v>566201</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>599321</v>
+        <v>599312</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8983930533361791</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8698902773992322</v>
+        <v>0.8700750183896419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9209694958777745</v>
+        <v>0.9209555005150292</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>27509</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18109</v>
+        <v>18659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39145</v>
+        <v>39240</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1124196579228187</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07400612454805915</v>
+        <v>0.07625261392773051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1599737409391679</v>
+        <v>0.1603625313633393</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1415,19 +1415,19 @@
         <v>21295</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13157</v>
+        <v>13068</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31472</v>
+        <v>31737</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05490116207536155</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03392123426366764</v>
+        <v>0.03369065360021407</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08113964223561328</v>
+        <v>0.08182126833871577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1436,19 +1436,19 @@
         <v>48804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36625</v>
+        <v>35473</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64983</v>
+        <v>64655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07715093687776366</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05789757856287656</v>
+        <v>0.05607652738629679</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1027283596312625</v>
+        <v>0.1022088353784018</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>217189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>205553</v>
+        <v>205458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226589</v>
+        <v>226039</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8875803420771813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8400262590608321</v>
+        <v>0.8396374686366606</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9259938754519408</v>
+        <v>0.9237473860722694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>330</v>
@@ -1486,19 +1486,19 @@
         <v>366582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>356405</v>
+        <v>356140</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>374720</v>
+        <v>374809</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9450988379246384</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9188603577643866</v>
+        <v>0.9181787316612842</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.966078765736332</v>
+        <v>0.9663093463997861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>522</v>
@@ -1507,19 +1507,19 @@
         <v>583771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>567592</v>
+        <v>567920</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>595950</v>
+        <v>597102</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9228490631222364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8972716403687375</v>
+        <v>0.8977911646215979</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9421024214371234</v>
+        <v>0.9439234726137032</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>113757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91431</v>
+        <v>93705</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134591</v>
+        <v>137880</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0952695920274603</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07657237801550149</v>
+        <v>0.07847691551996094</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1127179516349354</v>
+        <v>0.115472612613822</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -1632,19 +1632,19 @@
         <v>110061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89927</v>
+        <v>89627</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133601</v>
+        <v>133429</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07500015745312491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06128007987945324</v>
+        <v>0.06107576446360016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09104119094736039</v>
+        <v>0.09092387653659173</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>198</v>
@@ -1653,19 +1653,19 @@
         <v>223818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>194688</v>
+        <v>195558</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>254328</v>
+        <v>254806</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08409368807800115</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07314892411682634</v>
+        <v>0.07347567468646375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09555706054319056</v>
+        <v>0.09573680453268132</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1080292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1059458</v>
+        <v>1056169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1102618</v>
+        <v>1100344</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9047304079725397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8872820483650646</v>
+        <v>0.8845273873861781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9234276219844987</v>
+        <v>0.9215230844800391</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1249</v>
@@ -1703,19 +1703,19 @@
         <v>1357419</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1333879</v>
+        <v>1334051</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1377553</v>
+        <v>1377853</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9249998425468751</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9089588090526395</v>
+        <v>0.909076123463408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9387199201205467</v>
+        <v>0.9389242355363996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2227</v>
@@ -1724,19 +1724,19 @@
         <v>2437710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2407200</v>
+        <v>2406722</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2466840</v>
+        <v>2465970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9159063119219989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9044429394568095</v>
+        <v>0.9042631954673187</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9268510758831736</v>
+        <v>0.9265243253135363</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>26782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17955</v>
+        <v>17782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38252</v>
+        <v>38471</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08108822113078164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05436326792326177</v>
+        <v>0.05384028609306567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1158165037423059</v>
+        <v>0.1164806363585629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2089,19 +2089,19 @@
         <v>11037</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5257</v>
+        <v>5347</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19805</v>
+        <v>19765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03438020497747717</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.016375480721685</v>
+        <v>0.01665678934563234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06169163465539016</v>
+        <v>0.06156762783373879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -2110,19 +2110,19 @@
         <v>37819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27361</v>
+        <v>26397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51001</v>
+        <v>52056</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05806604880080019</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04200949114618453</v>
+        <v>0.04052914573341848</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07830505749058234</v>
+        <v>0.07992523555116213</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>303498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292028</v>
+        <v>291809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312325</v>
+        <v>312498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9189117788692184</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8841834962576941</v>
+        <v>0.883519363641437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9456367320767383</v>
+        <v>0.9461597139069342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>289</v>
@@ -2160,19 +2160,19 @@
         <v>309989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301221</v>
+        <v>301261</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315769</v>
+        <v>315679</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9656197950225228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9383083653446093</v>
+        <v>0.9384323721662613</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9836245192783146</v>
+        <v>0.9833432106543677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>565</v>
@@ -2181,19 +2181,19 @@
         <v>613487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>600305</v>
+        <v>599250</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>623945</v>
+        <v>624909</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9419339511991998</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9216949425094172</v>
+        <v>0.9200747644488368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9579905088538153</v>
+        <v>0.9594708542665811</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>52395</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39273</v>
+        <v>38954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69327</v>
+        <v>69072</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.109632389708068</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08217506653979526</v>
+        <v>0.08150848921041177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1450608358842634</v>
+        <v>0.1445277988192743</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -2306,19 +2306,19 @@
         <v>37840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26827</v>
+        <v>26125</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54265</v>
+        <v>51736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07615999001677325</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05399504857017552</v>
+        <v>0.05258166715776933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1092177056743072</v>
+        <v>0.1041282100612604</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -2327,19 +2327,19 @@
         <v>90235</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70682</v>
+        <v>71549</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109553</v>
+        <v>111993</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09257115521505219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07251162946760978</v>
+        <v>0.07340127995147107</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1123884131150057</v>
+        <v>0.1148916743859512</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>425523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>408591</v>
+        <v>408846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>438645</v>
+        <v>438964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.890367610291932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8549391641157367</v>
+        <v>0.8554722011807252</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9178249334602048</v>
+        <v>0.9184915107895879</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>400</v>
@@ -2377,19 +2377,19 @@
         <v>459009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>442584</v>
+        <v>445113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>470022</v>
+        <v>470724</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9238400099832268</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8907822943256928</v>
+        <v>0.8958717899387396</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9460049514298245</v>
+        <v>0.9474183328422308</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>778</v>
@@ -2398,19 +2398,19 @@
         <v>884532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>865214</v>
+        <v>862774</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>904085</v>
+        <v>903218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9074288447849478</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8876115868849941</v>
+        <v>0.8851083256140488</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9274883705323901</v>
+        <v>0.9265987200485288</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>44932</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34314</v>
+        <v>32810</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60192</v>
+        <v>58905</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1343931475839264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1026365602385973</v>
+        <v>0.09813611470683234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1800372963003522</v>
+        <v>0.1761892736892493</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -2523,19 +2523,19 @@
         <v>33240</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22917</v>
+        <v>22862</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46123</v>
+        <v>45699</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08799251108032444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06066553461277505</v>
+        <v>0.06051972636485533</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1220961095808324</v>
+        <v>0.1209724100807121</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -2544,19 +2544,19 @@
         <v>78172</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63329</v>
+        <v>63518</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96482</v>
+        <v>97713</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1097777926479751</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08893330121659061</v>
+        <v>0.08919934893432481</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1354902942184963</v>
+        <v>0.1372192632944137</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>289398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274138</v>
+        <v>275425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>300016</v>
+        <v>301520</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8656068524160736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8199627036996477</v>
+        <v>0.8238107263107507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8973634397614028</v>
+        <v>0.9018638852931677</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>322</v>
@@ -2594,19 +2594,19 @@
         <v>344522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331639</v>
+        <v>332063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>354845</v>
+        <v>354900</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9120074889196755</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8779038904191678</v>
+        <v>0.8790275899192878</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.939334465387225</v>
+        <v>0.9394802736351446</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>605</v>
@@ -2615,19 +2615,19 @@
         <v>633920</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>615610</v>
+        <v>614379</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648763</v>
+        <v>648574</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.890222207352025</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8645097057815033</v>
+        <v>0.8627807367055861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9110666987834094</v>
+        <v>0.9108006510656752</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>40759</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30446</v>
+        <v>30839</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52535</v>
+        <v>52158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1585974699077639</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1184688734400303</v>
+        <v>0.1199981381146323</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2044166414434982</v>
+        <v>0.2029492133485538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -2740,19 +2740,19 @@
         <v>37182</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25905</v>
+        <v>24884</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52568</v>
+        <v>50864</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09291663327534348</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06473413472373314</v>
+        <v>0.06218479253609838</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1313641428218346</v>
+        <v>0.1271069484691229</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -2761,19 +2761,19 @@
         <v>77942</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63361</v>
+        <v>63282</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96531</v>
+        <v>96242</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1186024082915543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09641570308764484</v>
+        <v>0.09629475856698508</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1468897701288751</v>
+        <v>0.1464504815701928</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>216239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>204463</v>
+        <v>204840</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226552</v>
+        <v>226159</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8414025300922361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7955833585565018</v>
+        <v>0.7970507866514462</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8815311265599698</v>
+        <v>0.8800018618853677</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>273</v>
@@ -2811,19 +2811,19 @@
         <v>362987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347601</v>
+        <v>349305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>374264</v>
+        <v>375285</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9070833667246565</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8686358571781654</v>
+        <v>0.872893051530877</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9352658652762668</v>
+        <v>0.9378152074639015</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>528</v>
@@ -2832,19 +2832,19 @@
         <v>579225</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>560636</v>
+        <v>560925</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>593806</v>
+        <v>593885</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8813975917084457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8531102298711248</v>
+        <v>0.8535495184298072</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9035842969123551</v>
+        <v>0.9037052414330149</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>164868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>143016</v>
+        <v>141537</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190000</v>
+        <v>190243</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1178027334112104</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1021887436950379</v>
+        <v>0.1011323362788182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1357601099904893</v>
+        <v>0.1359336836774408</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -2957,19 +2957,19 @@
         <v>119300</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96321</v>
+        <v>98869</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>141941</v>
+        <v>142221</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07475816981290084</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06035873117363024</v>
+        <v>0.06195570227470121</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08894612539775527</v>
+        <v>0.0891214802093461</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -2978,19 +2978,19 @@
         <v>284168</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>252487</v>
+        <v>253205</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>322302</v>
+        <v>318844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09487012887310584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08429354105189769</v>
+        <v>0.08453321314773669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1076014436264689</v>
+        <v>0.1064468507647087</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>1234658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1209526</v>
+        <v>1209283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1256510</v>
+        <v>1257989</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8821972665887895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.864239890009511</v>
+        <v>0.8640663163225593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8978112563049623</v>
+        <v>0.8988676637211821</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1284</v>
@@ -3028,19 +3028,19 @@
         <v>1476506</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1453865</v>
+        <v>1453585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1499485</v>
+        <v>1496937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9252418301870992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9110538746022447</v>
+        <v>0.9108785197906539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9396412688263697</v>
+        <v>0.938044297725299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2476</v>
@@ -3049,19 +3049,19 @@
         <v>2711164</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2673030</v>
+        <v>2676488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2742845</v>
+        <v>2742127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9051298711268941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8923985563735312</v>
+        <v>0.8935531492352913</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9157064589481023</v>
+        <v>0.9154667868522635</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>94995</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78985</v>
+        <v>80349</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111025</v>
+        <v>112462</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3065258965051303</v>
+        <v>0.3065258965051305</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2548663543644234</v>
+        <v>0.2592687932724158</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3582527449890722</v>
+        <v>0.362889230194089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -3414,19 +3414,19 @@
         <v>77260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66265</v>
+        <v>66037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89656</v>
+        <v>88654</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2473785707240894</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2121751336107865</v>
+        <v>0.211444945908247</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2870697305753242</v>
+        <v>0.2838594783961342</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>212</v>
@@ -3435,19 +3435,19 @@
         <v>172255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152104</v>
+        <v>153554</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192796</v>
+        <v>193867</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2768378325735754</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.244453043912416</v>
+        <v>0.2467833451454857</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3098501565520068</v>
+        <v>0.3115725903406065</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>214913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>198883</v>
+        <v>197446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>230923</v>
+        <v>229559</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6934741034948695</v>
+        <v>0.6934741034948696</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6417472550109277</v>
+        <v>0.637110769805911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7451336456355765</v>
+        <v>0.7407312067275843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>369</v>
@@ -3485,19 +3485,19 @@
         <v>235055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>222659</v>
+        <v>223661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246050</v>
+        <v>246278</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7526214292759106</v>
+        <v>0.7526214292759107</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.712930269424676</v>
+        <v>0.7161405216038658</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7878248663892133</v>
+        <v>0.7885550540917531</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>577</v>
@@ -3506,19 +3506,19 @@
         <v>449967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>429426</v>
+        <v>428355</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>470118</v>
+        <v>468668</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7231621674264247</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6901498434479931</v>
+        <v>0.6884274096593935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7555469560875839</v>
+        <v>0.7532166548545143</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>193570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172169</v>
+        <v>171403</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>215353</v>
+        <v>215318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3303284941319181</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2938086792017042</v>
+        <v>0.2925005626643766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3675028053387194</v>
+        <v>0.3674432316749817</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>281</v>
@@ -3631,19 +3631,19 @@
         <v>175138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>158279</v>
+        <v>158399</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192474</v>
+        <v>192948</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3046159753670021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2752922219330124</v>
+        <v>0.2755013971401006</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3347672768782022</v>
+        <v>0.3355926135656792</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>498</v>
@@ -3652,19 +3652,19 @@
         <v>368708</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>341521</v>
+        <v>342502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>396327</v>
+        <v>397883</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3175945311907473</v>
+        <v>0.3175945311907472</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2941764227542321</v>
+        <v>0.2950217338724779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3413847143575975</v>
+        <v>0.3427252490506099</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>392421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370638</v>
+        <v>370673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413822</v>
+        <v>414588</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6696715058680818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6324971946612806</v>
+        <v>0.6325567683250184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7061913207982955</v>
+        <v>0.7074994373356235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>662</v>
@@ -3702,19 +3702,19 @@
         <v>399810</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>382474</v>
+        <v>382000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416669</v>
+        <v>416549</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6953840246329981</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.665232723121798</v>
+        <v>0.6644073864343207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7247077780669878</v>
+        <v>0.7244986028598991</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1082</v>
@@ -3723,19 +3723,19 @@
         <v>792231</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>764612</v>
+        <v>763056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>819418</v>
+        <v>818437</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6824054688092527</v>
+        <v>0.6824054688092526</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6586152856424028</v>
+        <v>0.6572747509493904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7058235772457681</v>
+        <v>0.7049782661275223</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>178413</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160679</v>
+        <v>162794</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194031</v>
+        <v>196157</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4504628189599198</v>
+        <v>0.4504628189599197</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4056864252760157</v>
+        <v>0.4110274768774462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4898948616396931</v>
+        <v>0.4952611257977845</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>289</v>
@@ -3848,19 +3848,19 @@
         <v>157555</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143039</v>
+        <v>143885</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172986</v>
+        <v>172612</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3709748678223093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.336795482887785</v>
+        <v>0.3387882437048277</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.407307412501225</v>
+        <v>0.406427757659497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>539</v>
@@ -3869,19 +3869,19 @@
         <v>335968</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>315725</v>
+        <v>313727</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>358332</v>
+        <v>358378</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4093320598852726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3846681280074444</v>
+        <v>0.3822339805252474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4365788085107483</v>
+        <v>0.436634854154922</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>217654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>202036</v>
+        <v>199910</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>235388</v>
+        <v>233273</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5495371810400803</v>
+        <v>0.5495371810400802</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5101051383603068</v>
+        <v>0.504738874202216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5943135747239845</v>
+        <v>0.5889725231225539</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -3919,19 +3919,19 @@
         <v>267151</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251720</v>
+        <v>252094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>281667</v>
+        <v>280821</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6290251321776908</v>
+        <v>0.6290251321776907</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5926925874987753</v>
+        <v>0.5935722423405031</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.663204517112215</v>
+        <v>0.6612117562951723</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>816</v>
@@ -3940,19 +3940,19 @@
         <v>484804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>462440</v>
+        <v>462394</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>505047</v>
+        <v>507045</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5906679401147275</v>
+        <v>0.5906679401147273</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5634211914892516</v>
+        <v>0.5633651458450779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6153318719925555</v>
+        <v>0.6177660194747526</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>108487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93366</v>
+        <v>95106</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122371</v>
+        <v>123889</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3592178577036266</v>
+        <v>0.3592178577036265</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3091505797774602</v>
+        <v>0.3149124326190137</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4051896010850565</v>
+        <v>0.41021783788538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>210</v>
@@ -4065,19 +4065,19 @@
         <v>120049</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106667</v>
+        <v>106645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132581</v>
+        <v>133772</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2731354634469851</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2426901592522752</v>
+        <v>0.2426380195813474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3016478426768628</v>
+        <v>0.3043575054825531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>366</v>
@@ -4086,19 +4086,19 @@
         <v>228535</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>207701</v>
+        <v>208622</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>247939</v>
+        <v>247874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3081949277476643</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2800985391224898</v>
+        <v>0.2813399164657974</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3343612193458483</v>
+        <v>0.3342742898535359</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>193522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>179638</v>
+        <v>178120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208643</v>
+        <v>206903</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6407821422963735</v>
+        <v>0.6407821422963734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.594810398914943</v>
+        <v>0.5897821621146202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6908494202225385</v>
+        <v>0.6850875673809865</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>626</v>
@@ -4136,19 +4136,19 @@
         <v>319472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>306940</v>
+        <v>305749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>332854</v>
+        <v>332876</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.726864536553015</v>
+        <v>0.7268645365530149</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6983521573231373</v>
+        <v>0.6956424945174469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7573098407477248</v>
+        <v>0.7573619804186525</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>916</v>
@@ -4157,19 +4157,19 @@
         <v>512994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>493590</v>
+        <v>493655</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>533828</v>
+        <v>532907</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6918050722523356</v>
+        <v>0.6918050722523357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6656387806541519</v>
+        <v>0.665725710146464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7199014608775102</v>
+        <v>0.7186600835342027</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>575464</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>541970</v>
+        <v>542010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>613190</v>
+        <v>610919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3610249966994436</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3400116420467126</v>
+        <v>0.3400366221814116</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3846923059837695</v>
+        <v>0.3832675934239288</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>900</v>
@@ -4282,19 +4282,19 @@
         <v>530002</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>502056</v>
+        <v>502066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>561226</v>
+        <v>557958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3026008882889175</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2866450142394491</v>
+        <v>0.2866508430085106</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3204276778498423</v>
+        <v>0.3185619539871126</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1615</v>
@@ -4303,19 +4303,19 @@
         <v>1105467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1061428</v>
+        <v>1061900</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1151576</v>
+        <v>1150593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3304375485872013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3172737264085895</v>
+        <v>0.3174150669117179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3442201189820771</v>
+        <v>0.343926444099361</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>1018510</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>980784</v>
+        <v>983055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1052004</v>
+        <v>1051964</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6389750033005565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6153076940162308</v>
+        <v>0.6167324065760709</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6599883579532875</v>
+        <v>0.6599633778185883</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2168</v>
@@ -4353,19 +4353,19 @@
         <v>1221487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1190263</v>
+        <v>1193531</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1249433</v>
+        <v>1249423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6973991117110826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6795723221501578</v>
+        <v>0.6814380460128876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.713354985760551</v>
+        <v>0.7133491569914894</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3391</v>
@@ -4374,19 +4374,19 @@
         <v>2239996</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2193887</v>
+        <v>2194870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2284035</v>
+        <v>2283563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6695624514127988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6557798810179229</v>
+        <v>0.6560735559006391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6827262735914105</v>
+        <v>0.6825849330882822</v>
       </c>
     </row>
     <row r="18">
